--- a/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/原型设计输入文档/因卓教育.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/原型设计输入文档/因卓教育.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\需求梳理final\需求阶段产品经理输出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\需求梳理final\最终确认文档归档\原型设计输入文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="378">
   <si>
     <t>程序员客栈 — 因卓教育</t>
   </si>
@@ -1195,12 +1195,20 @@
     <t>注意：在不同终端工作簿标注亮绿色的功能点在移动APP端(Android, IOS)是不需要的，客户暂时移除了这些功能点，等到其他所有功能完成后，再考虑是否需要实现暂时移除的这些功能。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>作业管理(试卷管理)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能题库（在线测试）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1270,6 +1278,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1478,7 +1494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,6 +1636,36 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1638,10 +1684,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,21 +1722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1674,6 +1732,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,8 +1747,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1692,8 +1759,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1701,65 +1777,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,17 +2906,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2907,11 +2926,11 @@
     </row>
     <row r="2" spans="1:256" s="42" customFormat="1" ht="32.1" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="44"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3177,7 +3196,7 @@
       </c>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:256" ht="27.95" customHeight="1">
+    <row r="4" spans="1:256" ht="27.9" customHeight="1">
       <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
@@ -3228,14 +3247,14 @@
     </row>
     <row r="8" spans="1:256" ht="26.1" customHeight="1">
       <c r="A8" s="43"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="43"/>
     </row>
-    <row r="9" spans="1:256" ht="15.95" customHeight="1">
+    <row r="9" spans="1:256" ht="15.9" customHeight="1">
       <c r="A9" s="43"/>
       <c r="E9" s="43"/>
     </row>
@@ -3244,22 +3263,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="22.5">
-      <c r="B18" s="84" t="s">
+    <row r="18" spans="2:4" ht="22.2">
+      <c r="B18" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B19" s="83"/>
+      <c r="B19" s="51"/>
     </row>
     <row r="20" spans="2:4" ht="79.5" customHeight="1">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3282,31 +3301,31 @@
   <dimension ref="A1:IU164"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="19" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="38" customWidth="1"/>
     <col min="7" max="255" width="9" style="38" customWidth="1"/>
     <col min="256" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.95" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="30.9" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -3329,7 +3348,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -3340,13 +3359,13 @@
       <c r="E3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="68" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -3356,12 +3375,12 @@
       <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="40" t="s">
@@ -3370,34 +3389,34 @@
       <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="77"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="55"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="40" t="s">
         <v>37</v>
       </c>
@@ -3406,10 +3425,10 @@
       <c r="E8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="F8" s="77"/>
+    </row>
+    <row r="9" spans="1:6" ht="36.9" customHeight="1">
+      <c r="A9" s="68" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -3423,7 +3442,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="40" t="s">
         <v>42</v>
       </c>
@@ -3434,8 +3453,8 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="28.5">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:6" ht="27.6">
+      <c r="A11" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3450,8 +3469,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57">
-      <c r="A12" s="57"/>
+    <row r="12" spans="1:6" ht="55.2">
+      <c r="A12" s="70"/>
       <c r="B12" s="10" t="s">
         <v>48</v>
       </c>
@@ -3464,9 +3483,9 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:6" ht="14.4">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3475,50 +3494,50 @@
       <c r="D13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
+    <row r="14" spans="1:6" ht="14.4">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="32" t="s">
         <v>59</v>
       </c>
@@ -3528,8 +3547,8 @@
       <c r="E17" s="33"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="28.5">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:6" ht="27.6">
+      <c r="A18" s="70" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3545,21 +3564,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.1" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:6" ht="27.6">
+      <c r="A20" s="70"/>
       <c r="B20" s="10" t="s">
         <v>68</v>
       </c>
@@ -3570,8 +3589,8 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="28.5">
-      <c r="A21" s="57"/>
+    <row r="21" spans="1:6" ht="27.6">
+      <c r="A21" s="70"/>
       <c r="B21" s="10" t="s">
         <v>69</v>
       </c>
@@ -3582,8 +3601,8 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25">
-      <c r="A22" s="57"/>
+    <row r="22" spans="1:6" ht="14.4">
+      <c r="A22" s="70"/>
       <c r="B22" s="10" t="s">
         <v>71</v>
       </c>
@@ -3592,8 +3611,8 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25">
-      <c r="A23" s="57"/>
+    <row r="23" spans="1:6" ht="14.4">
+      <c r="A23" s="70"/>
       <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
@@ -3604,8 +3623,8 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:6" ht="27.6">
+      <c r="A24" s="70" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3618,8 +3637,8 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25">
-      <c r="A25" s="57"/>
+    <row r="25" spans="1:6" ht="27.6">
+      <c r="A25" s="70"/>
       <c r="B25" s="10" t="s">
         <v>77</v>
       </c>
@@ -3630,8 +3649,8 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25">
-      <c r="A26" s="57"/>
+    <row r="26" spans="1:6" ht="27.6">
+      <c r="A26" s="70"/>
       <c r="B26" s="10" t="s">
         <v>78</v>
       </c>
@@ -3642,8 +3661,8 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25">
-      <c r="A27" s="57"/>
+    <row r="27" spans="1:6" ht="14.4">
+      <c r="A27" s="70"/>
       <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
@@ -3652,8 +3671,8 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
-      <c r="A28" s="57"/>
+    <row r="28" spans="1:6" ht="14.4">
+      <c r="A28" s="70"/>
       <c r="B28" s="10" t="s">
         <v>80</v>
       </c>
@@ -3664,39 +3683,39 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="77" t="s">
+    <row r="29" spans="1:6" ht="14.4">
+      <c r="A29" s="70"/>
+      <c r="B29" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="76" t="s">
+    <row r="30" spans="1:6" ht="14.4">
+      <c r="A30" s="70"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="77"/>
-    </row>
-    <row r="31" spans="1:6" ht="28.5">
-      <c r="A31" s="57" t="s">
-        <v>89</v>
+      <c r="F30" s="66"/>
+    </row>
+    <row r="31" spans="1:6" ht="27.6">
+      <c r="A31" s="94" t="s">
+        <v>376</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>90</v>
@@ -3708,8 +3727,8 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="42.75">
-      <c r="A32" s="57"/>
+    <row r="32" spans="1:6" ht="41.4">
+      <c r="A32" s="70"/>
       <c r="B32" s="10" t="s">
         <v>92</v>
       </c>
@@ -3720,12 +3739,12 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57" t="s">
+    <row r="33" spans="1:6" ht="14.4">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="70" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -3736,10 +3755,10 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
+    <row r="34" spans="1:6" ht="14.4">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="10" t="s">
         <v>98</v>
       </c>
@@ -3748,9 +3767,9 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
+    <row r="35" spans="1:6" ht="14.4">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="10" t="s">
         <v>100</v>
       </c>
@@ -3760,9 +3779,9 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
+    <row r="36" spans="1:6" ht="14.4">
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="10" t="s">
         <v>102</v>
       </c>
@@ -3770,247 +3789,247 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25">
-      <c r="A37" s="57" t="s">
+    <row r="37" spans="1:6" ht="14.4">
+      <c r="A37" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="76"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="76" t="s">
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.4">
+      <c r="A38" s="70"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="47" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="76"/>
-    </row>
-    <row r="39" spans="1:6" ht="28.5">
-      <c r="A39" s="57"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77" t="s">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:6" ht="27.6">
+      <c r="A39" s="70"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
+    <row r="40" spans="1:6" ht="14.4">
+      <c r="A40" s="70"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="57">
-      <c r="A41" s="57"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
+    <row r="41" spans="1:6" ht="55.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="57">
-      <c r="A42" s="57"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
+    <row r="42" spans="1:6" ht="55.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F42" s="47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
+    <row r="43" spans="1:6" ht="14.4">
+      <c r="A43" s="70"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="76" t="s">
+    <row r="44" spans="1:6" ht="14.4">
+      <c r="A44" s="70"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="47" t="s">
         <v>124</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="76"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="76" t="s">
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4">
+      <c r="A45" s="70"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="47" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="76" t="s">
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4">
+      <c r="A46" s="70"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="47" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="12"/>
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="78"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77" t="s">
+      <c r="F46" s="48"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4">
+      <c r="A47" s="70"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66" t="s">
         <v>129</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77" t="s">
+      <c r="E47" s="47"/>
+      <c r="F47" s="66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
+    <row r="48" spans="1:6" ht="14.4">
+      <c r="A48" s="70"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="66"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.4">
+      <c r="A49" s="70"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="77"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="66"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.4">
+      <c r="A50" s="70"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="66"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4">
+      <c r="A51" s="70"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="77"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="66"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.4">
+      <c r="A52" s="70"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="76" t="s">
+      <c r="E52" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="77"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
+      <c r="F52" s="66"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.4">
+      <c r="A53" s="70"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="66"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.4">
+      <c r="A54" s="70"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="66"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.4">
+      <c r="A55" s="70"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="66"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.4">
+      <c r="A56" s="70"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57" t="s">
+      <c r="E56" s="47"/>
+      <c r="F56" s="66"/>
+    </row>
+    <row r="57" spans="1:6" ht="27.6">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70" t="s">
         <v>142</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -4022,9 +4041,9 @@
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="28.5">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
+    <row r="58" spans="1:6" ht="27.6">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="10" t="s">
         <v>105</v>
       </c>
@@ -4034,10 +4053,10 @@
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57" t="s">
+    <row r="59" spans="1:6" ht="14.4">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>146</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -4046,19 +4065,19 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
+    <row r="60" spans="1:6" ht="14.4">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="12" t="s">
         <v>148</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
+    <row r="61" spans="1:6" ht="14.4">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="10" t="s">
         <v>149</v>
       </c>
@@ -4066,10 +4085,10 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="14.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57" t="s">
+    <row r="62" spans="1:6" ht="14.4">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70" t="s">
         <v>150</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -4078,10 +4097,10 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="14.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
+    <row r="63" spans="1:6" ht="14.4">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="12" t="s">
         <v>152</v>
       </c>
@@ -4090,10 +4109,10 @@
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
+    <row r="64" spans="1:6" ht="14.4">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="12" t="s">
         <v>154</v>
       </c>
@@ -4102,10 +4121,10 @@
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="42.75">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+    <row r="65" spans="1:6" ht="55.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="12" t="s">
         <v>156</v>
       </c>
@@ -4116,75 +4135,75 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="77" t="s">
+    <row r="66" spans="1:6" ht="27.6">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-    </row>
-    <row r="67" spans="1:6" ht="28.5">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="77"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" ht="27.6">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="77"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.4">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="77"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.4">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-    </row>
-    <row r="70" spans="1:6" ht="28.5">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="77"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+    </row>
+    <row r="70" spans="1:6" ht="27.6">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-    </row>
-    <row r="71" spans="1:6" ht="85.5">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="77"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+    </row>
+    <row r="71" spans="1:6" ht="82.8">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="76" t="s">
+      <c r="E71" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="85.5">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57" t="s">
+    <row r="72" spans="1:6" ht="82.8">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70" t="s">
         <v>168</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -4198,9 +4217,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="42.75">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
+    <row r="73" spans="1:6" ht="55.2">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="10" t="s">
         <v>156</v>
       </c>
@@ -4212,261 +4231,261 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="77" t="s">
+    <row r="74" spans="1:6" ht="27.6">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-    </row>
-    <row r="75" spans="1:6" ht="28.5">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="77"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+    </row>
+    <row r="75" spans="1:6" ht="27.6">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-    </row>
-    <row r="76" spans="1:6" ht="14.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="77"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.4">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-    </row>
-    <row r="77" spans="1:6" ht="14.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="77"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.4">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-    </row>
-    <row r="78" spans="1:6" ht="28.5">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="77"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+    </row>
+    <row r="78" spans="1:6" ht="27.6">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-    </row>
-    <row r="79" spans="1:6" ht="85.5">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="77"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+    </row>
+    <row r="79" spans="1:6" ht="82.8">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E79" s="76" t="s">
+      <c r="E79" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="76" t="s">
+      <c r="F79" s="47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.5">
-      <c r="A80" s="57" t="s">
+    <row r="80" spans="1:6" ht="27.6">
+      <c r="A80" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="C80" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-    </row>
-    <row r="81" spans="1:6" ht="28.5">
-      <c r="A81" s="57"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="76" t="s">
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+    </row>
+    <row r="81" spans="1:6" ht="27.6">
+      <c r="A81" s="70"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-    </row>
-    <row r="82" spans="1:6" ht="42.75">
-      <c r="A82" s="57"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="76" t="s">
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+    </row>
+    <row r="82" spans="1:6" ht="41.4">
+      <c r="A82" s="70"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-    </row>
-    <row r="83" spans="1:6" ht="28.5">
-      <c r="A83" s="57"/>
-      <c r="B83" s="76" t="s">
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+    </row>
+    <row r="83" spans="1:6" ht="27.6">
+      <c r="A83" s="70"/>
+      <c r="B83" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="F83" s="76"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="77" t="s">
+      <c r="F83" s="47"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.4">
+      <c r="A84" s="70"/>
+      <c r="B84" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C84" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76" t="s">
+      <c r="D84" s="47"/>
+      <c r="E84" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="76"/>
-    </row>
-    <row r="85" spans="1:6" ht="28.5">
-      <c r="A85" s="57"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="76" t="s">
+      <c r="F84" s="47"/>
+    </row>
+    <row r="85" spans="1:6" ht="27.6">
+      <c r="A85" s="70"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76" t="s">
+      <c r="D85" s="47"/>
+      <c r="E85" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="F85" s="76"/>
-    </row>
-    <row r="86" spans="1:6" ht="14.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77" t="s">
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.4">
+      <c r="A86" s="70"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="76" t="s">
+      <c r="D86" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="76" t="s">
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.4">
+      <c r="A87" s="70"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E87" s="76" t="s">
+      <c r="E87" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="F87" s="76"/>
-    </row>
-    <row r="88" spans="1:6" ht="14.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="76" t="s">
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.4">
+      <c r="A88" s="70"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="76" t="s">
+      <c r="E88" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F88" s="76"/>
-    </row>
-    <row r="89" spans="1:6" ht="42.75">
-      <c r="A89" s="57"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="76" t="s">
+      <c r="F88" s="47"/>
+    </row>
+    <row r="89" spans="1:6" ht="55.2">
+      <c r="A89" s="70"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E89" s="76" t="s">
+      <c r="E89" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F89" s="76" t="s">
+      <c r="F89" s="47" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="76" t="s">
+    <row r="90" spans="1:6" ht="14.4">
+      <c r="A90" s="70"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76" t="s">
+      <c r="D90" s="47"/>
+      <c r="E90" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="F90" s="76"/>
-    </row>
-    <row r="91" spans="1:6" ht="42.75">
-      <c r="A91" s="57"/>
-      <c r="B91" s="76" t="s">
+      <c r="F90" s="47"/>
+    </row>
+    <row r="91" spans="1:6" ht="41.4">
+      <c r="A91" s="70"/>
+      <c r="B91" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76" t="s">
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="F91" s="76"/>
-    </row>
-    <row r="92" spans="1:6" ht="28.5">
-      <c r="A92" s="77" t="s">
+      <c r="F91" s="47"/>
+    </row>
+    <row r="92" spans="1:6" ht="41.4">
+      <c r="A92" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B92" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="76" t="s">
+      <c r="C92" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76" t="s">
+      <c r="D92" s="47"/>
+      <c r="E92" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="F92" s="76" t="s">
+      <c r="F92" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="76" t="s">
+    <row r="93" spans="1:6" ht="14.4">
+      <c r="A93" s="66"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76" t="s">
+      <c r="D93" s="47"/>
+      <c r="E93" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="76"/>
-    </row>
-    <row r="94" spans="1:6" ht="28.5">
-      <c r="A94" s="77"/>
-      <c r="B94" s="76" t="s">
+      <c r="F93" s="47"/>
+    </row>
+    <row r="94" spans="1:6" ht="27.6">
+      <c r="A94" s="66"/>
+      <c r="B94" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="F94" s="76"/>
-    </row>
-    <row r="95" spans="1:6" ht="28.5">
+      <c r="F94" s="47"/>
+    </row>
+    <row r="95" spans="1:6" ht="27.6">
       <c r="A95" s="10" t="s">
         <v>196</v>
       </c>
@@ -4484,21 +4503,21 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.25">
-      <c r="A96" s="76" t="s">
+    <row r="96" spans="1:6" ht="14.4">
+      <c r="A96" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="76" t="s">
+      <c r="B96" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76" t="s">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F96" s="76"/>
-    </row>
-    <row r="97" spans="1:6" ht="14.25">
+      <c r="F96" s="47"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.4">
       <c r="A97" s="41" t="s">
         <v>203</v>
       </c>
@@ -4512,642 +4531,642 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.25">
-      <c r="A98" s="79" t="s">
+    <row r="98" spans="1:6" ht="14.4">
+      <c r="A98" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="81"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="81" t="s">
+      <c r="C98" s="49"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="F98" s="82"/>
-    </row>
-    <row r="99" spans="1:6" ht="14.25">
-      <c r="A99" s="79"/>
-      <c r="B99" s="80"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="81" t="s">
+      <c r="F98" s="50"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.4">
+      <c r="A99" s="71"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="F99" s="82"/>
-    </row>
-    <row r="100" spans="1:6" ht="14.25">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="81" t="s">
+      <c r="F99" s="50"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.4">
+      <c r="A100" s="71"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="F100" s="82"/>
-    </row>
-    <row r="101" spans="1:6" ht="14.25">
-      <c r="A101" s="79"/>
-      <c r="B101" s="80"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="81" t="s">
+      <c r="F100" s="50"/>
+    </row>
+    <row r="101" spans="1:6" ht="14.4">
+      <c r="A101" s="71"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="F101" s="82"/>
-    </row>
-    <row r="102" spans="1:6" ht="14.25">
-      <c r="A102" s="79"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="81" t="s">
+      <c r="F101" s="50"/>
+    </row>
+    <row r="102" spans="1:6" ht="14.4">
+      <c r="A102" s="71"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="F102" s="82"/>
-    </row>
-    <row r="103" spans="1:6" ht="14.25">
-      <c r="A103" s="79"/>
-      <c r="B103" s="80"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="81" t="s">
+      <c r="F102" s="50"/>
+    </row>
+    <row r="103" spans="1:6" ht="14.4">
+      <c r="A103" s="71"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="F103" s="82"/>
-    </row>
-    <row r="104" spans="1:6" ht="14.25">
-      <c r="A104" s="79"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="81" t="s">
+      <c r="F103" s="50"/>
+    </row>
+    <row r="104" spans="1:6" ht="14.4">
+      <c r="A104" s="71"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="F104" s="82"/>
-    </row>
-    <row r="105" spans="1:6" ht="14.25">
-      <c r="A105" s="79"/>
-      <c r="B105" s="80"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="81" t="s">
+      <c r="F104" s="50"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.4">
+      <c r="A105" s="71"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="F105" s="82"/>
-    </row>
-    <row r="106" spans="1:6" ht="14.25">
-      <c r="A106" s="79"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="81" t="s">
+      <c r="F105" s="50"/>
+    </row>
+    <row r="106" spans="1:6" ht="14.4">
+      <c r="A106" s="71"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="F106" s="82"/>
-    </row>
-    <row r="107" spans="1:6" ht="14.25">
-      <c r="A107" s="79"/>
-      <c r="B107" s="80"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="81" t="s">
+      <c r="F106" s="50"/>
+    </row>
+    <row r="107" spans="1:6" ht="14.4">
+      <c r="A107" s="71"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F107" s="82"/>
-    </row>
-    <row r="108" spans="1:6" ht="14.25">
-      <c r="A108" s="79"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="81" t="s">
+      <c r="F107" s="50"/>
+    </row>
+    <row r="108" spans="1:6" ht="14.4">
+      <c r="A108" s="71"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F108" s="82"/>
-    </row>
-    <row r="109" spans="1:6" ht="14.25">
-      <c r="A109" s="79"/>
-      <c r="B109" s="80"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="81" t="s">
+      <c r="F108" s="50"/>
+    </row>
+    <row r="109" spans="1:6" ht="14.4">
+      <c r="A109" s="71"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="F109" s="82"/>
-    </row>
-    <row r="110" spans="1:6" ht="14.25">
-      <c r="A110" s="79"/>
-      <c r="B110" s="80"/>
-      <c r="C110" s="81"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="81" t="s">
+      <c r="F109" s="50"/>
+    </row>
+    <row r="110" spans="1:6" ht="14.4">
+      <c r="A110" s="71"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F110" s="82"/>
-    </row>
-    <row r="111" spans="1:6" ht="14.25">
-      <c r="A111" s="79"/>
-      <c r="B111" s="80"/>
-      <c r="C111" s="81"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="81" t="s">
+      <c r="F110" s="50"/>
+    </row>
+    <row r="111" spans="1:6" ht="14.4">
+      <c r="A111" s="71"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="F111" s="82"/>
-    </row>
-    <row r="112" spans="1:6" ht="14.25">
-      <c r="A112" s="79"/>
-      <c r="B112" s="80"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="81" t="s">
+      <c r="F111" s="50"/>
+    </row>
+    <row r="112" spans="1:6" ht="14.4">
+      <c r="A112" s="71"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="F112" s="82"/>
-    </row>
-    <row r="113" spans="1:6" ht="14.25">
-      <c r="A113" s="79"/>
-      <c r="B113" s="80"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="81" t="s">
+      <c r="F112" s="50"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.4">
+      <c r="A113" s="71"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="F113" s="82"/>
-    </row>
-    <row r="114" spans="1:6" ht="14.25">
-      <c r="A114" s="79"/>
-      <c r="B114" s="80"/>
-      <c r="C114" s="81"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="81" t="s">
+      <c r="F113" s="50"/>
+    </row>
+    <row r="114" spans="1:6" ht="14.4">
+      <c r="A114" s="71"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="F114" s="82"/>
-    </row>
-    <row r="115" spans="1:6" ht="14.25">
-      <c r="A115" s="79"/>
-      <c r="B115" s="80" t="s">
+      <c r="F114" s="50"/>
+    </row>
+    <row r="115" spans="1:6" ht="14.4">
+      <c r="A115" s="71"/>
+      <c r="B115" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="82"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="81" t="s">
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F115" s="82"/>
-    </row>
-    <row r="116" spans="1:6" ht="14.25">
-      <c r="A116" s="79"/>
-      <c r="B116" s="80"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="81" t="s">
+      <c r="F115" s="50"/>
+    </row>
+    <row r="116" spans="1:6" ht="14.4">
+      <c r="A116" s="71"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F116" s="82"/>
+      <c r="F116" s="50"/>
     </row>
     <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="79"/>
-      <c r="B117" s="80"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="81" t="s">
+      <c r="A117" s="71"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="82"/>
+      <c r="F117" s="50"/>
     </row>
     <row r="118" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A118" s="79"/>
-      <c r="B118" s="80"/>
-      <c r="C118" s="82"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="81" t="s">
+      <c r="A118" s="71"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F118" s="82"/>
+      <c r="F118" s="50"/>
     </row>
     <row r="119" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A119" s="79"/>
-      <c r="B119" s="80"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="81" t="s">
+      <c r="A119" s="71"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="F119" s="82"/>
+      <c r="F119" s="50"/>
     </row>
     <row r="120" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A120" s="79"/>
-      <c r="B120" s="80"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="81" t="s">
+      <c r="A120" s="71"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="F120" s="82"/>
+      <c r="F120" s="50"/>
     </row>
     <row r="121" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A121" s="79"/>
-      <c r="B121" s="80"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="81" t="s">
+      <c r="A121" s="71"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F121" s="82"/>
+      <c r="F121" s="50"/>
     </row>
     <row r="122" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A122" s="79"/>
-      <c r="B122" s="80"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="81" t="s">
+      <c r="A122" s="71"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="F122" s="82"/>
+      <c r="F122" s="50"/>
     </row>
     <row r="123" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A123" s="79"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="81" t="s">
+      <c r="A123" s="71"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="F123" s="82"/>
+      <c r="F123" s="50"/>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A124" s="79"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="81" t="s">
+      <c r="A124" s="71"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="F124" s="82"/>
+      <c r="F124" s="50"/>
     </row>
     <row r="125" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A125" s="79"/>
-      <c r="B125" s="80"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="81" t="s">
+      <c r="A125" s="71"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="F125" s="82"/>
+      <c r="F125" s="50"/>
     </row>
     <row r="126" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A126" s="79"/>
-      <c r="B126" s="80" t="s">
+      <c r="A126" s="71"/>
+      <c r="B126" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="81" t="s">
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="F126" s="80" t="s">
+      <c r="F126" s="67" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A127" s="79"/>
-      <c r="B127" s="80"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="81" t="s">
+      <c r="A127" s="71"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="F127" s="80"/>
+      <c r="F127" s="67"/>
     </row>
     <row r="128" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A128" s="79"/>
-      <c r="B128" s="80"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="81" t="s">
+      <c r="A128" s="71"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F128" s="80"/>
+      <c r="F128" s="67"/>
     </row>
     <row r="129" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A129" s="79"/>
-      <c r="B129" s="80"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="81" t="s">
+      <c r="A129" s="71"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="F129" s="80"/>
+      <c r="F129" s="67"/>
     </row>
     <row r="130" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A130" s="79"/>
-      <c r="B130" s="80"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="81" t="s">
+      <c r="A130" s="71"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F130" s="80"/>
+      <c r="F130" s="67"/>
     </row>
     <row r="131" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A131" s="79"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="81" t="s">
+      <c r="A131" s="71"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F131" s="80"/>
+      <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A132" s="79"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="81" t="s">
+      <c r="A132" s="71"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F132" s="80"/>
+      <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A133" s="79"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="81" t="s">
+      <c r="A133" s="71"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="F133" s="80"/>
+      <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A134" s="79"/>
-      <c r="B134" s="80"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="82"/>
-      <c r="E134" s="81" t="s">
+      <c r="A134" s="71"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="F134" s="80"/>
+      <c r="F134" s="67"/>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A135" s="79"/>
-      <c r="B135" s="80"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="82"/>
-      <c r="E135" s="81" t="s">
+      <c r="A135" s="71"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F135" s="80"/>
+      <c r="F135" s="67"/>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A136" s="79"/>
-      <c r="B136" s="80"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="82"/>
-      <c r="E136" s="81" t="s">
+      <c r="A136" s="71"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="F136" s="80"/>
+      <c r="F136" s="67"/>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A137" s="79"/>
-      <c r="B137" s="80"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="81" t="s">
+      <c r="A137" s="71"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="F137" s="80"/>
+      <c r="F137" s="67"/>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A138" s="79"/>
-      <c r="B138" s="80"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="81" t="s">
+      <c r="A138" s="71"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="F138" s="80"/>
+      <c r="F138" s="67"/>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A139" s="79"/>
-      <c r="B139" s="80"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="81" t="s">
+      <c r="A139" s="71"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="F139" s="80"/>
+      <c r="F139" s="67"/>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A140" s="79"/>
-      <c r="B140" s="80" t="s">
+      <c r="A140" s="71"/>
+      <c r="B140" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="81" t="s">
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F140" s="80"/>
+      <c r="F140" s="67"/>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A141" s="79"/>
-      <c r="B141" s="80"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="81" t="s">
+      <c r="A141" s="71"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F141" s="80"/>
+      <c r="F141" s="67"/>
     </row>
     <row r="142" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A142" s="79"/>
-      <c r="B142" s="80"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="81" t="s">
+      <c r="A142" s="71"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F142" s="80"/>
+      <c r="F142" s="67"/>
     </row>
     <row r="143" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A143" s="79"/>
-      <c r="B143" s="80"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="81" t="s">
+      <c r="A143" s="71"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F143" s="80"/>
+      <c r="F143" s="67"/>
     </row>
     <row r="144" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A144" s="79"/>
-      <c r="B144" s="80"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="81" t="s">
+      <c r="A144" s="71"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="F144" s="80"/>
+      <c r="F144" s="67"/>
     </row>
     <row r="145" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A145" s="79"/>
-      <c r="B145" s="80"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="81" t="s">
+      <c r="A145" s="71"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="F145" s="80"/>
+      <c r="F145" s="67"/>
     </row>
     <row r="146" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A146" s="79"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="81" t="s">
+      <c r="A146" s="71"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F146" s="80"/>
+      <c r="F146" s="67"/>
     </row>
     <row r="147" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A147" s="79"/>
-      <c r="B147" s="80"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="81" t="s">
+      <c r="A147" s="71"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="F147" s="80"/>
+      <c r="F147" s="67"/>
     </row>
     <row r="148" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A148" s="79"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="81" t="s">
+      <c r="A148" s="71"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="F148" s="80"/>
+      <c r="F148" s="67"/>
     </row>
     <row r="149" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A149" s="79"/>
-      <c r="B149" s="80"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="81" t="s">
+      <c r="A149" s="71"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="F149" s="80"/>
+      <c r="F149" s="67"/>
     </row>
     <row r="150" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A150" s="79"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="82"/>
-      <c r="D150" s="82"/>
-      <c r="E150" s="81" t="s">
+      <c r="A150" s="71"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="F150" s="80"/>
+      <c r="F150" s="67"/>
     </row>
     <row r="151" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A151" s="79"/>
-      <c r="B151" s="80" t="s">
+      <c r="A151" s="71"/>
+      <c r="B151" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="C151" s="82"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="81" t="s">
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="F151" s="80"/>
+      <c r="F151" s="67"/>
     </row>
     <row r="152" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A152" s="79"/>
-      <c r="B152" s="80"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="81" t="s">
+      <c r="A152" s="71"/>
+      <c r="B152" s="67"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="F152" s="80"/>
+      <c r="F152" s="67"/>
     </row>
     <row r="153" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A153" s="79"/>
-      <c r="B153" s="80"/>
-      <c r="C153" s="82"/>
-      <c r="D153" s="82"/>
-      <c r="E153" s="81" t="s">
+      <c r="A153" s="71"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="F153" s="80"/>
+      <c r="F153" s="67"/>
     </row>
     <row r="154" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A154" s="79"/>
-      <c r="B154" s="80"/>
-      <c r="C154" s="82"/>
-      <c r="D154" s="82"/>
-      <c r="E154" s="81" t="s">
+      <c r="A154" s="71"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="F154" s="80"/>
+      <c r="F154" s="67"/>
     </row>
     <row r="155" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A155" s="79"/>
-      <c r="B155" s="80"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="82"/>
-      <c r="E155" s="81" t="s">
+      <c r="A155" s="71"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F155" s="80"/>
+      <c r="F155" s="67"/>
     </row>
     <row r="156" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A156" s="79"/>
-      <c r="B156" s="80"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="82"/>
-      <c r="E156" s="81" t="s">
+      <c r="A156" s="71"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F156" s="80"/>
+      <c r="F156" s="67"/>
     </row>
     <row r="157" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A157" s="79"/>
-      <c r="B157" s="80"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="82"/>
-      <c r="E157" s="81" t="s">
+      <c r="A157" s="71"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="F157" s="80"/>
+      <c r="F157" s="67"/>
     </row>
     <row r="158" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A158" s="79"/>
-      <c r="B158" s="80"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="81" t="s">
+      <c r="A158" s="71"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="F158" s="80"/>
+      <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A159" s="79"/>
-      <c r="B159" s="80"/>
-      <c r="C159" s="82"/>
-      <c r="D159" s="82"/>
-      <c r="E159" s="81" t="s">
+      <c r="A159" s="71"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F159" s="80"/>
+      <c r="F159" s="67"/>
     </row>
     <row r="160" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A160" s="59" t="s">
+      <c r="A160" s="72" t="s">
         <v>251</v>
       </c>
       <c r="B160" s="15" t="s">
@@ -5161,7 +5180,7 @@
       <c r="F160" s="15"/>
     </row>
     <row r="161" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A161" s="59"/>
+      <c r="A161" s="72"/>
       <c r="B161" s="15" t="s">
         <v>254</v>
       </c>
@@ -5173,7 +5192,7 @@
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A162" s="59"/>
+      <c r="A162" s="72"/>
       <c r="B162" s="15" t="s">
         <v>256</v>
       </c>
@@ -5185,7 +5204,7 @@
       <c r="F162" s="15"/>
     </row>
     <row r="163" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A163" s="59"/>
+      <c r="A163" s="72"/>
       <c r="B163" s="15" t="s">
         <v>257</v>
       </c>
@@ -5197,7 +5216,7 @@
       <c r="F163" s="15"/>
     </row>
     <row r="164" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A164" s="59"/>
+      <c r="A164" s="72"/>
       <c r="B164" s="15" t="s">
         <v>259</v>
       </c>
@@ -5208,21 +5227,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F47:F56"/>
-    <mergeCell ref="F126:F159"/>
-    <mergeCell ref="B151:B159"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C47:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A79"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="A92:A94"/>
     <mergeCell ref="A98:A159"/>
     <mergeCell ref="A160:A164"/>
     <mergeCell ref="B4:B7"/>
@@ -5239,23 +5256,25 @@
     <mergeCell ref="B115:B125"/>
     <mergeCell ref="B126:B139"/>
     <mergeCell ref="B140:B150"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A79"/>
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F47:F56"/>
+    <mergeCell ref="F126:F159"/>
+    <mergeCell ref="B151:B159"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="C86:C89"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5266,32 +5285,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="19" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="38" customWidth="1"/>
     <col min="7" max="255" width="9" style="38" customWidth="1"/>
     <col min="256" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.95" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="30.9" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -5314,7 +5333,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="74" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -5327,12 +5346,12 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="77" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="40" t="s">
         <v>37</v>
       </c>
@@ -5341,10 +5360,10 @@
       <c r="E4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="63"/>
-    </row>
-    <row r="5" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" ht="36.9" customHeight="1">
+      <c r="A5" s="68" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -5358,7 +5377,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="55"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="40" t="s">
         <v>42</v>
       </c>
@@ -5369,8 +5388,8 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:6" ht="27.6">
+      <c r="A7" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -5385,9 +5404,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57" t="s">
+    <row r="8" spans="1:6" ht="14.4">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -5396,40 +5415,40 @@
       <c r="D8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="70" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
+    <row r="9" spans="1:6" ht="14.4">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="32" t="s">
         <v>59</v>
       </c>
@@ -5439,8 +5458,8 @@
       <c r="E11" s="33"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="28.5">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:6" ht="27.6">
+      <c r="A12" s="70" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -5453,9 +5472,9 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:6" ht="14.4">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70" t="s">
         <v>264</v>
       </c>
       <c r="C13" s="10"/>
@@ -5467,9 +5486,9 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
+    <row r="14" spans="1:6" ht="14.4">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
         <v>98</v>
@@ -5479,8 +5498,8 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="28.5">
-      <c r="A15" s="57"/>
+    <row r="15" spans="1:6" ht="27.6">
+      <c r="A15" s="70"/>
       <c r="B15" s="10" t="s">
         <v>267</v>
       </c>
@@ -5491,75 +5510,75 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:6" ht="14.4">
+      <c r="A16" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="76"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="76" t="s">
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="76"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="76" t="s">
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.4">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="F18" s="76"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77" t="s">
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="76"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76" t="s">
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="76"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25">
-      <c r="A21" s="57" t="s">
-        <v>274</v>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4">
+      <c r="A21" s="94" t="s">
+        <v>377</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>275</v>
@@ -5567,13 +5586,13 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="70" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57" t="s">
+    <row r="22" spans="1:6" ht="14.4">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70" t="s">
         <v>277</v>
       </c>
       <c r="C22" s="10"/>
@@ -5583,11 +5602,11 @@
       <c r="E22" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="57"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
         <v>98</v>
@@ -5595,23 +5614,23 @@
       <c r="E23" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F23" s="57"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.5">
-      <c r="A24" s="76" t="s">
+      <c r="F23" s="70"/>
+    </row>
+    <row r="24" spans="1:6" ht="27.6">
+      <c r="A24" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="76"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.5">
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" ht="27.6">
       <c r="A25" s="10" t="s">
         <v>196</v>
       </c>
@@ -5627,21 +5646,21 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:6" ht="14.4">
+      <c r="A26" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="76"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25">
+      <c r="F26" s="47"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="41" t="s">
         <v>203</v>
       </c>
@@ -5655,131 +5674,139 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
-      <c r="A28" s="79" t="s">
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="F28" s="89"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88" t="s">
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="71"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="89"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88" t="s">
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="71"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="89"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88" t="s">
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6">
+      <c r="A31" s="71"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="F31" s="89"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88" t="s">
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6">
+      <c r="A32" s="71"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88" t="s">
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="71"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="F33" s="89"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="90" t="s">
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.2">
+      <c r="A34" s="71"/>
+      <c r="B34" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="88" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89" t="s">
+      <c r="E34" s="53"/>
+      <c r="F34" s="54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.5">
-      <c r="A35" s="79"/>
-      <c r="B35" s="91" t="s">
+    <row r="35" spans="1:6" ht="31.2">
+      <c r="A35" s="71"/>
+      <c r="B35" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="F35" s="89"/>
-    </row>
-    <row r="36" spans="1:6" ht="28.5">
-      <c r="A36" s="79"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88" t="s">
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="1:6" ht="31.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="89"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="91" t="s">
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6">
+      <c r="A37" s="71"/>
+      <c r="B37" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88" t="s">
+      <c r="C37" s="50"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="89"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88" t="s">
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6">
+      <c r="A38" s="71"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="F38" s="89"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A23"/>
@@ -5792,14 +5819,6 @@
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5820,9 +5839,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
@@ -5830,16 +5849,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.9" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>17</v>
       </c>
@@ -5860,7 +5879,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="84" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="23"/>
@@ -5876,7 +5895,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
@@ -5886,7 +5905,7 @@
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
@@ -5896,7 +5915,7 @@
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
@@ -5930,26 +5949,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="254" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.9" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
@@ -5970,7 +5989,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="86" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -5984,7 +6003,7 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="70"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="25" t="s">
         <v>307</v>
       </c>
@@ -5996,13 +6015,13 @@
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="86" t="s">
         <v>311</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -6014,9 +6033,9 @@
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="25" t="s">
         <v>314</v>
       </c>
@@ -6026,9 +6045,9 @@
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="25" t="s">
         <v>316</v>
       </c>
@@ -6038,9 +6057,9 @@
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="25" t="s">
         <v>318</v>
       </c>
@@ -6050,8 +6069,8 @@
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="25" t="s">
         <v>320</v>
       </c>
@@ -6062,8 +6081,8 @@
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="25" t="s">
         <v>322</v>
       </c>
@@ -6074,11 +6093,11 @@
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="86" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="86" t="s">
         <v>325</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -6090,9 +6109,9 @@
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="25" t="s">
         <v>327</v>
       </c>
@@ -6102,9 +6121,9 @@
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="25" t="s">
         <v>329</v>
       </c>
@@ -6114,9 +6133,9 @@
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="69" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="86" t="s">
         <v>331</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -6128,9 +6147,9 @@
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="25" t="s">
         <v>334</v>
       </c>
@@ -6140,10 +6159,10 @@
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="84" t="s">
         <v>337</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -6156,8 +6175,8 @@
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="22" t="s">
         <v>340</v>
       </c>
@@ -6168,8 +6187,8 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="22" t="s">
         <v>269</v>
       </c>
@@ -6180,8 +6199,8 @@
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84" t="s">
         <v>251</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -6194,8 +6213,8 @@
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="22" t="s">
         <v>340</v>
       </c>
@@ -6206,8 +6225,8 @@
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="22" t="s">
         <v>269</v>
       </c>
@@ -6218,8 +6237,8 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84" t="s">
         <v>346</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -6232,8 +6251,8 @@
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="22" t="s">
         <v>269</v>
       </c>
@@ -6244,8 +6263,8 @@
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84" t="s">
         <v>349</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -6258,8 +6277,8 @@
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="22" t="s">
         <v>269</v>
       </c>
@@ -6270,7 +6289,7 @@
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="72" t="s">
         <v>352</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -6284,7 +6303,7 @@
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A27" s="59"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="15" t="s">
         <v>354</v>
       </c>
@@ -6296,7 +6315,7 @@
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="15" t="s">
         <v>356</v>
       </c>
@@ -6308,7 +6327,7 @@
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -6323,8 +6342,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.5">
-      <c r="A30" s="57"/>
+    <row r="30" spans="1:6" ht="27.6">
+      <c r="A30" s="70"/>
       <c r="B30" s="10" t="s">
         <v>48</v>
       </c>
@@ -6338,8 +6357,8 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -6348,50 +6367,50 @@
       <c r="D31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="70" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="57"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="70"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57" t="s">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="57"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="70"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="57"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="70"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="32" t="s">
         <v>59</v>
       </c>
@@ -6402,7 +6421,7 @@
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="72" t="s">
         <v>359</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -6416,7 +6435,7 @@
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="15" t="s">
         <v>362</v>
       </c>
@@ -6428,7 +6447,7 @@
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="59"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="15" t="s">
         <v>364</v>
       </c>
@@ -6440,7 +6459,7 @@
       <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="72" t="s">
         <v>366</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -6456,7 +6475,7 @@
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="59"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="15" t="s">
         <v>370</v>
       </c>
@@ -6470,18 +6489,18 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="92" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="76"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
       <c r="A42" s="10" t="s">
@@ -6502,18 +6521,18 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="92" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="76"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
       <c r="A44" s="10" t="s">
@@ -6531,11 +6550,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B15"/>
@@ -6544,14 +6566,11 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6572,28 +6591,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="113.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="113.109375" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="92"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>371</v>
       </c>
@@ -6617,10 +6636,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="90" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6631,14 +6650,14 @@
       <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="74" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6648,13 +6667,13 @@
       <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="74" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="90" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -6663,37 +6682,37 @@
       <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="63"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
@@ -6702,11 +6721,11 @@
       <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="90" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -6720,8 +6739,8 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
@@ -6733,8 +6752,8 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -6750,8 +6769,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
@@ -6765,9 +6784,9 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -6776,54 +6795,54 @@
       <c r="E13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="70" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="57"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="57"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
@@ -6834,8 +6853,8 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="57" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="70" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -6851,8 +6870,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="12" t="s">
         <v>65</v>
       </c>
@@ -6866,8 +6885,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="10" t="s">
         <v>68</v>
       </c>
@@ -6879,8 +6898,8 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="10" t="s">
         <v>69</v>
       </c>
@@ -6892,8 +6911,8 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="10" t="s">
         <v>71</v>
       </c>
@@ -6903,8 +6922,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="10" t="s">
         <v>72</v>
       </c>
@@ -6916,8 +6935,8 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="70" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -6931,8 +6950,8 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="10" t="s">
         <v>77</v>
       </c>
@@ -6944,8 +6963,8 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="10" t="s">
         <v>78</v>
       </c>
@@ -6957,8 +6976,8 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="10" t="s">
         <v>79</v>
       </c>
@@ -6968,8 +6987,8 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="10" t="s">
         <v>80</v>
       </c>
@@ -6981,12 +7000,12 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="70" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -6995,26 +7014,26 @@
       <c r="F29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="70" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="57"/>
+      <c r="G30" s="70"/>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="70" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -7028,8 +7047,8 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="10" t="s">
         <v>92</v>
       </c>
@@ -7041,12 +7060,12 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="70" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -7058,10 +7077,10 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="11" t="s">
         <v>98</v>
       </c>
@@ -7071,9 +7090,9 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="10" t="s">
         <v>100</v>
       </c>
@@ -7084,11 +7103,11 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="57" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="70" t="s">
         <v>104</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -7101,9 +7120,9 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="10" t="s">
         <v>107</v>
       </c>
@@ -7114,10 +7133,10 @@
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57" t="s">
+      <c r="A38" s="77"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70" t="s">
         <v>109</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -7131,10 +7150,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="11" t="s">
         <v>113</v>
       </c>
@@ -7146,10 +7165,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="11" t="s">
         <v>116</v>
       </c>
@@ -7161,10 +7180,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="11" t="s">
         <v>119</v>
       </c>
@@ -7176,10 +7195,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="11" t="s">
         <v>122</v>
       </c>
@@ -7189,9 +7208,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="10" t="s">
         <v>124</v>
       </c>
@@ -7202,9 +7221,9 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="10" t="s">
         <v>126</v>
       </c>
@@ -7213,9 +7232,9 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="10" t="s">
         <v>127</v>
       </c>
@@ -7226,125 +7245,125 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70" t="s">
         <v>129</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>130</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="57" t="s">
+      <c r="G46" s="70" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="57"/>
+      <c r="G47" s="70"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="11" t="s">
         <v>133</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="57"/>
+      <c r="G48" s="70"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="57"/>
+      <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="11" t="s">
         <v>135</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="57"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="57"/>
+      <c r="G51" s="70"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="11" t="s">
         <v>138</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="57"/>
+      <c r="G52" s="70"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="57"/>
+      <c r="G53" s="70"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="57"/>
+      <c r="G54" s="70"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="77"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="57"/>
+      <c r="G55" s="70"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57" t="s">
+      <c r="A56" s="77"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70" t="s">
         <v>142</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -7357,9 +7376,9 @@
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="10" t="s">
         <v>105</v>
       </c>
@@ -7370,10 +7389,10 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57" t="s">
+      <c r="A58" s="77"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70" t="s">
         <v>146</v>
       </c>
       <c r="E58" s="11" t="s">
@@ -7383,10 +7402,10 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="11" t="s">
         <v>148</v>
       </c>
@@ -7394,9 +7413,9 @@
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="10" t="s">
         <v>149</v>
       </c>
@@ -7405,10 +7424,10 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57" t="s">
+      <c r="A61" s="77"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70" t="s">
         <v>150</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -7418,10 +7437,10 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="11" t="s">
         <v>152</v>
       </c>
@@ -7431,10 +7450,10 @@
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
+      <c r="A63" s="77"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="11" t="s">
         <v>154</v>
       </c>
@@ -7444,10 +7463,10 @@
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="11" t="s">
         <v>156</v>
       </c>
@@ -7459,10 +7478,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="61" t="s">
+      <c r="A65" s="77"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="91" t="s">
         <v>159</v>
       </c>
       <c r="E65" s="13" t="s">
@@ -7472,10 +7491,10 @@
       <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="61"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="91"/>
       <c r="E66" s="13" t="s">
         <v>161</v>
       </c>
@@ -7483,10 +7502,10 @@
       <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A67" s="63"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="61"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="13" t="s">
         <v>162</v>
       </c>
@@ -7494,10 +7513,10 @@
       <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A68" s="63"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="61"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="13" t="s">
         <v>163</v>
       </c>
@@ -7505,10 +7524,10 @@
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A69" s="63"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="61"/>
+      <c r="A69" s="77"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="13" t="s">
         <v>164</v>
       </c>
@@ -7516,10 +7535,10 @@
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A70" s="63"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="61"/>
+      <c r="A70" s="77"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="91"/>
       <c r="E70" s="13" t="s">
         <v>165</v>
       </c>
@@ -7531,9 +7550,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A71" s="63"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57" t="s">
+      <c r="A71" s="77"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70" t="s">
         <v>168</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -7548,9 +7567,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A72" s="63"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
+      <c r="A72" s="77"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="10" t="s">
         <v>156</v>
       </c>
@@ -7563,10 +7582,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A73" s="63"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="61" t="s">
+      <c r="A73" s="77"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="91" t="s">
         <v>159</v>
       </c>
       <c r="E73" s="13" t="s">
@@ -7576,10 +7595,10 @@
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A74" s="63"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="61"/>
+      <c r="A74" s="77"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="91"/>
       <c r="E74" s="13" t="s">
         <v>161</v>
       </c>
@@ -7587,10 +7606,10 @@
       <c r="G74" s="12"/>
     </row>
     <row r="75" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A75" s="63"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="61"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="91"/>
       <c r="E75" s="13" t="s">
         <v>162</v>
       </c>
@@ -7598,10 +7617,10 @@
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A76" s="63"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="61"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="91"/>
       <c r="E76" s="13" t="s">
         <v>163</v>
       </c>
@@ -7609,10 +7628,10 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A77" s="63"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="61"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="91"/>
       <c r="E77" s="13" t="s">
         <v>164</v>
       </c>
@@ -7620,10 +7639,10 @@
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7" ht="120" customHeight="1">
-      <c r="A78" s="63"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="61"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="91"/>
       <c r="E78" s="13" t="s">
         <v>165</v>
       </c>
@@ -7635,11 +7654,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="30" customHeight="1">
-      <c r="A79" s="63"/>
-      <c r="B79" s="57" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="91" t="s">
         <v>173</v>
       </c>
       <c r="D79" s="12" t="s">
@@ -7650,9 +7669,9 @@
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="1:7" ht="33" customHeight="1">
-      <c r="A80" s="63"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="61"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="12" t="s">
         <v>175</v>
       </c>
@@ -7660,10 +7679,10 @@
       <c r="F80" s="13"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" ht="36.950000000000003" customHeight="1">
-      <c r="A81" s="63"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="61"/>
+    <row r="81" spans="1:7" ht="36.9" customHeight="1">
+      <c r="A81" s="77"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="12" t="s">
         <v>176</v>
       </c>
@@ -7672,8 +7691,8 @@
       <c r="G81" s="12"/>
     </row>
     <row r="82" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A82" s="63"/>
-      <c r="B82" s="57"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="10" t="s">
         <v>177</v>
       </c>
@@ -7685,9 +7704,9 @@
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A83" s="63"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57" t="s">
+      <c r="A83" s="77"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -7700,9 +7719,9 @@
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A84" s="63"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="10" t="s">
         <v>181</v>
       </c>
@@ -7713,10 +7732,10 @@
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A85" s="63"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57" t="s">
+      <c r="A85" s="77"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70" t="s">
         <v>150</v>
       </c>
       <c r="E85" s="11" t="s">
@@ -7726,10 +7745,10 @@
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A86" s="63"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
       <c r="E86" s="11" t="s">
         <v>152</v>
       </c>
@@ -7739,10 +7758,10 @@
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A87" s="63"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
       <c r="E87" s="11" t="s">
         <v>154</v>
       </c>
@@ -7752,10 +7771,10 @@
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A88" s="63"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
       <c r="E88" s="11" t="s">
         <v>156</v>
       </c>
@@ -7767,8 +7786,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A89" s="63"/>
-      <c r="B89" s="57"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="10" t="s">
         <v>185</v>
       </c>
@@ -7780,11 +7799,11 @@
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A90" s="63"/>
-      <c r="B90" s="57" t="s">
+      <c r="A90" s="77"/>
+      <c r="B90" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="70" t="s">
         <v>188</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -7799,9 +7818,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A91" s="63"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
       <c r="D91" s="10" t="s">
         <v>192</v>
       </c>
@@ -7812,8 +7831,8 @@
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A92" s="63"/>
-      <c r="B92" s="57"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="10" t="s">
         <v>194</v>
       </c>
@@ -7825,7 +7844,7 @@
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A93" s="63"/>
+      <c r="A93" s="77"/>
       <c r="B93" s="10" t="s">
         <v>196</v>
       </c>
@@ -7844,7 +7863,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A94" s="63"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="10" t="s">
         <v>200</v>
       </c>
@@ -7859,7 +7878,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A95" s="63"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="10" t="s">
         <v>203</v>
       </c>
@@ -7874,8 +7893,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A96" s="63"/>
-      <c r="B96" s="59" t="s">
+      <c r="A96" s="77"/>
+      <c r="B96" s="72" t="s">
         <v>251</v>
       </c>
       <c r="C96" s="15" t="s">
@@ -7889,8 +7908,8 @@
       <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A97" s="63"/>
-      <c r="B97" s="59"/>
+      <c r="A97" s="77"/>
+      <c r="B97" s="72"/>
       <c r="C97" s="15" t="s">
         <v>254</v>
       </c>
@@ -7902,8 +7921,8 @@
       <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A98" s="63"/>
-      <c r="B98" s="59"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="72"/>
       <c r="C98" s="15" t="s">
         <v>256</v>
       </c>
@@ -7915,8 +7934,8 @@
       <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A99" s="63"/>
-      <c r="B99" s="59"/>
+      <c r="A99" s="77"/>
+      <c r="B99" s="72"/>
       <c r="C99" s="15" t="s">
         <v>257</v>
       </c>
@@ -7928,8 +7947,8 @@
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A100" s="63"/>
-      <c r="B100" s="59"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="72"/>
       <c r="C100" s="15" t="s">
         <v>259</v>
       </c>
@@ -7939,10 +7958,10 @@
       <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="77" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -7955,13 +7974,13 @@
       <c r="F101" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G101" s="63" t="s">
+      <c r="G101" s="77" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A102" s="63"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="77"/>
       <c r="C102" s="4" t="s">
         <v>37</v>
       </c>
@@ -7970,11 +7989,11 @@
       <c r="F102" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G102" s="63"/>
+      <c r="G102" s="77"/>
     </row>
     <row r="103" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A103" s="63"/>
-      <c r="B103" s="74" t="s">
+      <c r="A103" s="77"/>
+      <c r="B103" s="90" t="s">
         <v>39</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -7988,8 +8007,8 @@
       <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A104" s="63"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="77"/>
       <c r="C104" s="4" t="s">
         <v>42</v>
       </c>
@@ -8001,8 +8020,8 @@
       <c r="G104" s="9"/>
     </row>
     <row r="105" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A105" s="63"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="77"/>
+      <c r="B105" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C105" s="10" t="s">
@@ -8018,9 +8037,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A106" s="63"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57" t="s">
+      <c r="A106" s="77"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D106" s="10" t="s">
@@ -8029,43 +8048,43 @@
       <c r="E106" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="71" t="s">
+      <c r="F106" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="57" t="s">
+      <c r="G106" s="70" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A107" s="63"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
+      <c r="A107" s="77"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
       <c r="D107" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F107" s="71"/>
-      <c r="G107" s="57"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="70"/>
     </row>
     <row r="108" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A108" s="63"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
       <c r="D108" s="10" t="s">
         <v>263</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F108" s="71"/>
-      <c r="G108" s="57"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="70"/>
     </row>
     <row r="109" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A109" s="63"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
+      <c r="A109" s="77"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
       <c r="D109" s="8" t="s">
         <v>59</v>
       </c>
@@ -8076,8 +8095,8 @@
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A110" s="63"/>
-      <c r="B110" s="57" t="s">
+      <c r="A110" s="77"/>
+      <c r="B110" s="70" t="s">
         <v>89</v>
       </c>
       <c r="C110" s="10" t="s">
@@ -8091,9 +8110,9 @@
       <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A111" s="63"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57" t="s">
+      <c r="A111" s="77"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70" t="s">
         <v>264</v>
       </c>
       <c r="D111" s="10"/>
@@ -8106,9 +8125,9 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A112" s="63"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
+      <c r="A112" s="77"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
       <c r="D112" s="10"/>
       <c r="E112" s="11" t="s">
         <v>98</v>
@@ -8119,8 +8138,8 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A113" s="63"/>
-      <c r="B113" s="57"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="70"/>
       <c r="C113" s="10" t="s">
         <v>267</v>
       </c>
@@ -8132,11 +8151,11 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A114" s="63"/>
-      <c r="B114" s="57" t="s">
+      <c r="A114" s="77"/>
+      <c r="B114" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="C114" s="70" t="s">
         <v>104</v>
       </c>
       <c r="D114" s="10" t="s">
@@ -8149,9 +8168,9 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A115" s="63"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
+      <c r="A115" s="77"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
       <c r="D115" s="10" t="s">
         <v>269</v>
       </c>
@@ -8162,9 +8181,9 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A116" s="63"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
+      <c r="A116" s="77"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
       <c r="D116" s="10" t="s">
         <v>271</v>
       </c>
@@ -8175,9 +8194,9 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A117" s="63"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="57" t="s">
+      <c r="A117" s="77"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="10"/>
@@ -8190,9 +8209,9 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A118" s="63"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="57"/>
+      <c r="A118" s="77"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
       <c r="D118" s="10"/>
       <c r="E118" s="11" t="s">
         <v>98</v>
@@ -8203,8 +8222,8 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A119" s="63"/>
-      <c r="B119" s="57" t="s">
+      <c r="A119" s="77"/>
+      <c r="B119" s="70" t="s">
         <v>274</v>
       </c>
       <c r="C119" s="10" t="s">
@@ -8213,14 +8232,14 @@
       <c r="D119" s="10"/>
       <c r="E119" s="11"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="57" t="s">
+      <c r="G119" s="70" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A120" s="63"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="57" t="s">
+      <c r="A120" s="77"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70" t="s">
         <v>277</v>
       </c>
       <c r="D120" s="10"/>
@@ -8230,12 +8249,12 @@
       <c r="F120" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G120" s="57"/>
+      <c r="G120" s="70"/>
     </row>
     <row r="121" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A121" s="63"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
+      <c r="A121" s="77"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
       <c r="D121" s="10"/>
       <c r="E121" s="11" t="s">
         <v>98</v>
@@ -8243,10 +8262,10 @@
       <c r="F121" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G121" s="57"/>
+      <c r="G121" s="70"/>
     </row>
     <row r="122" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A122" s="63"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="10" t="s">
         <v>278</v>
       </c>
@@ -8261,7 +8280,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A123" s="63"/>
+      <c r="A123" s="77"/>
       <c r="B123" s="10" t="s">
         <v>196</v>
       </c>
@@ -8278,7 +8297,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A124" s="63"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="10" t="s">
         <v>200</v>
       </c>
@@ -8293,7 +8312,7 @@
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A125" s="63"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="10" t="s">
         <v>203</v>
       </c>
@@ -8308,10 +8327,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A126" s="63" t="s">
+      <c r="A126" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="90" t="s">
         <v>27</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -8325,8 +8344,8 @@
       <c r="G126" s="7"/>
     </row>
     <row r="127" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A127" s="63"/>
-      <c r="B127" s="63"/>
+      <c r="A127" s="77"/>
+      <c r="B127" s="77"/>
       <c r="C127" s="4" t="s">
         <v>307</v>
       </c>
@@ -8338,14 +8357,14 @@
       <c r="G127" s="7"/>
     </row>
     <row r="128" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A128" s="63"/>
-      <c r="B128" s="74" t="s">
+      <c r="A128" s="77"/>
+      <c r="B128" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="C128" s="74" t="s">
+      <c r="C128" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="D128" s="74" t="s">
+      <c r="D128" s="90" t="s">
         <v>311</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -8357,10 +8376,10 @@
       <c r="G128" s="7"/>
     </row>
     <row r="129" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A129" s="63"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="63"/>
-      <c r="D129" s="63"/>
+      <c r="A129" s="77"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
       <c r="E129" s="5" t="s">
         <v>314</v>
       </c>
@@ -8370,10 +8389,10 @@
       <c r="G129" s="7"/>
     </row>
     <row r="130" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A130" s="63"/>
-      <c r="B130" s="63"/>
-      <c r="C130" s="63"/>
-      <c r="D130" s="63"/>
+      <c r="A130" s="77"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
       <c r="E130" s="5" t="s">
         <v>316</v>
       </c>
@@ -8383,10 +8402,10 @@
       <c r="G130" s="7"/>
     </row>
     <row r="131" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A131" s="63"/>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
+      <c r="A131" s="77"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
       <c r="E131" s="5" t="s">
         <v>318</v>
       </c>
@@ -8396,9 +8415,9 @@
       <c r="G131" s="7"/>
     </row>
     <row r="132" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A132" s="63"/>
-      <c r="B132" s="63"/>
-      <c r="C132" s="63"/>
+      <c r="A132" s="77"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="77"/>
       <c r="D132" s="4" t="s">
         <v>320</v>
       </c>
@@ -8409,9 +8428,9 @@
       <c r="G132" s="7"/>
     </row>
     <row r="133" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A133" s="63"/>
-      <c r="B133" s="63"/>
-      <c r="C133" s="63"/>
+      <c r="A133" s="77"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
       <c r="D133" s="4" t="s">
         <v>322</v>
       </c>
@@ -8422,12 +8441,12 @@
       <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A134" s="63"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="74" t="s">
+      <c r="A134" s="77"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="D134" s="74" t="s">
+      <c r="D134" s="90" t="s">
         <v>325</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -8439,10 +8458,10 @@
       <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A135" s="63"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
+      <c r="A135" s="77"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
       <c r="E135" s="5" t="s">
         <v>327</v>
       </c>
@@ -8452,10 +8471,10 @@
       <c r="G135" s="7"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A136" s="63"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
+      <c r="A136" s="77"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
       <c r="E136" s="5" t="s">
         <v>329</v>
       </c>
@@ -8465,10 +8484,10 @@
       <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A137" s="63"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="74" t="s">
+      <c r="A137" s="77"/>
+      <c r="B137" s="77"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="90" t="s">
         <v>331</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -8480,10 +8499,10 @@
       <c r="G137" s="7"/>
     </row>
     <row r="138" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A138" s="63"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="63"/>
+      <c r="A138" s="77"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
       <c r="E138" s="5" t="s">
         <v>334</v>
       </c>
@@ -8493,11 +8512,11 @@
       <c r="G138" s="7"/>
     </row>
     <row r="139" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A139" s="63"/>
-      <c r="B139" s="63" t="s">
+      <c r="A139" s="77"/>
+      <c r="B139" s="77" t="s">
         <v>336</v>
       </c>
-      <c r="C139" s="63" t="s">
+      <c r="C139" s="77" t="s">
         <v>337</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -8510,9 +8529,9 @@
       <c r="G139" s="7"/>
     </row>
     <row r="140" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A140" s="63"/>
-      <c r="B140" s="63"/>
-      <c r="C140" s="63"/>
+      <c r="A140" s="77"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="77"/>
       <c r="D140" s="7" t="s">
         <v>340</v>
       </c>
@@ -8523,9 +8542,9 @@
       <c r="G140" s="7"/>
     </row>
     <row r="141" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A141" s="63"/>
-      <c r="B141" s="63"/>
-      <c r="C141" s="63"/>
+      <c r="A141" s="77"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="77"/>
       <c r="D141" s="7" t="s">
         <v>269</v>
       </c>
@@ -8536,9 +8555,9 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A142" s="63"/>
-      <c r="B142" s="63"/>
-      <c r="C142" s="63" t="s">
+      <c r="A142" s="77"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77" t="s">
         <v>251</v>
       </c>
       <c r="D142" s="7" t="s">
@@ -8551,9 +8570,9 @@
       <c r="G142" s="7"/>
     </row>
     <row r="143" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A143" s="63"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
+      <c r="A143" s="77"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="77"/>
       <c r="D143" s="7" t="s">
         <v>340</v>
       </c>
@@ -8564,9 +8583,9 @@
       <c r="G143" s="7"/>
     </row>
     <row r="144" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A144" s="63"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="63"/>
+      <c r="A144" s="77"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="77"/>
       <c r="D144" s="7" t="s">
         <v>269</v>
       </c>
@@ -8577,9 +8596,9 @@
       <c r="G144" s="7"/>
     </row>
     <row r="145" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A145" s="63"/>
-      <c r="B145" s="63"/>
-      <c r="C145" s="63" t="s">
+      <c r="A145" s="77"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="77" t="s">
         <v>346</v>
       </c>
       <c r="D145" s="7" t="s">
@@ -8592,9 +8611,9 @@
       <c r="G145" s="7"/>
     </row>
     <row r="146" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A146" s="63"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
+      <c r="A146" s="77"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
       <c r="D146" s="7" t="s">
         <v>269</v>
       </c>
@@ -8605,9 +8624,9 @@
       <c r="G146" s="7"/>
     </row>
     <row r="147" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A147" s="63"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="63" t="s">
+      <c r="A147" s="77"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="77" t="s">
         <v>349</v>
       </c>
       <c r="D147" s="7" t="s">
@@ -8620,9 +8639,9 @@
       <c r="G147" s="7"/>
     </row>
     <row r="148" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A148" s="63"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="63"/>
+      <c r="A148" s="77"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="77"/>
       <c r="D148" s="7" t="s">
         <v>269</v>
       </c>
@@ -8633,8 +8652,8 @@
       <c r="G148" s="7"/>
     </row>
     <row r="149" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A149" s="63"/>
-      <c r="B149" s="57" t="s">
+      <c r="A149" s="77"/>
+      <c r="B149" s="70" t="s">
         <v>352</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -8648,8 +8667,8 @@
       <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A150" s="63"/>
-      <c r="B150" s="57"/>
+      <c r="A150" s="77"/>
+      <c r="B150" s="70"/>
       <c r="C150" s="10" t="s">
         <v>354</v>
       </c>
@@ -8661,8 +8680,8 @@
       <c r="G150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A151" s="63"/>
-      <c r="B151" s="57"/>
+      <c r="A151" s="77"/>
+      <c r="B151" s="70"/>
       <c r="C151" s="10" t="s">
         <v>356</v>
       </c>
@@ -8674,8 +8693,8 @@
       <c r="G151" s="10"/>
     </row>
     <row r="152" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A152" s="63"/>
-      <c r="B152" s="57" t="s">
+      <c r="A152" s="77"/>
+      <c r="B152" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C152" s="10" t="s">
@@ -8691,8 +8710,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A153" s="63"/>
-      <c r="B153" s="57"/>
+      <c r="A153" s="77"/>
+      <c r="B153" s="70"/>
       <c r="C153" s="10" t="s">
         <v>48</v>
       </c>
@@ -8706,9 +8725,9 @@
       <c r="G153" s="10"/>
     </row>
     <row r="154" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A154" s="63"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57" t="s">
+      <c r="A154" s="77"/>
+      <c r="B154" s="70"/>
+      <c r="C154" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -8717,54 +8736,54 @@
       <c r="E154" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F154" s="71" t="s">
+      <c r="F154" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="G154" s="57" t="s">
+      <c r="G154" s="70" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A155" s="63"/>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
+      <c r="A155" s="77"/>
+      <c r="B155" s="70"/>
+      <c r="C155" s="70"/>
       <c r="D155" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F155" s="71"/>
-      <c r="G155" s="57"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="70"/>
     </row>
     <row r="156" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A156" s="63"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57" t="s">
+      <c r="A156" s="77"/>
+      <c r="B156" s="70"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="70" t="s">
         <v>57</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F156" s="71"/>
-      <c r="G156" s="57"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="70"/>
     </row>
     <row r="157" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A157" s="63"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
+      <c r="A157" s="77"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
       <c r="E157" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F157" s="71"/>
-      <c r="G157" s="57"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="70"/>
     </row>
     <row r="158" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A158" s="63"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
+      <c r="A158" s="77"/>
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
       <c r="D158" s="8" t="s">
         <v>59</v>
       </c>
@@ -8775,8 +8794,8 @@
       <c r="G158" s="9"/>
     </row>
     <row r="159" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A159" s="63"/>
-      <c r="B159" s="59" t="s">
+      <c r="A159" s="77"/>
+      <c r="B159" s="72" t="s">
         <v>359</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -8790,8 +8809,8 @@
       <c r="G159" s="9"/>
     </row>
     <row r="160" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A160" s="63"/>
-      <c r="B160" s="59"/>
+      <c r="A160" s="77"/>
+      <c r="B160" s="72"/>
       <c r="C160" s="15" t="s">
         <v>362</v>
       </c>
@@ -8803,8 +8822,8 @@
       <c r="G160" s="9"/>
     </row>
     <row r="161" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A161" s="63"/>
-      <c r="B161" s="59"/>
+      <c r="A161" s="77"/>
+      <c r="B161" s="72"/>
       <c r="C161" s="15" t="s">
         <v>364</v>
       </c>
@@ -8816,8 +8835,8 @@
       <c r="G161" s="9"/>
     </row>
     <row r="162" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A162" s="63"/>
-      <c r="B162" s="57" t="s">
+      <c r="A162" s="77"/>
+      <c r="B162" s="70" t="s">
         <v>366</v>
       </c>
       <c r="C162" s="10" t="s">
@@ -8833,8 +8852,8 @@
       <c r="G162" s="10"/>
     </row>
     <row r="163" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A163" s="63"/>
-      <c r="B163" s="57"/>
+      <c r="A163" s="77"/>
+      <c r="B163" s="70"/>
       <c r="C163" s="10" t="s">
         <v>370</v>
       </c>
@@ -8848,7 +8867,7 @@
       <c r="G163" s="10"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A164" s="63"/>
+      <c r="A164" s="77"/>
       <c r="B164" s="10" t="s">
         <v>278</v>
       </c>
@@ -8863,7 +8882,7 @@
       <c r="G164" s="10"/>
     </row>
     <row r="165" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A165" s="63"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="10" t="s">
         <v>196</v>
       </c>
@@ -8882,7 +8901,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A166" s="63"/>
+      <c r="A166" s="77"/>
       <c r="B166" s="10" t="s">
         <v>200</v>
       </c>
@@ -8897,7 +8916,7 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A167" s="63"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="10" t="s">
         <v>203</v>
       </c>
@@ -8912,13 +8931,13 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A168" s="63" t="s">
+      <c r="A168" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="B168" s="63" t="s">
+      <c r="B168" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="C168" s="57" t="s">
+      <c r="C168" s="70" t="s">
         <v>133</v>
       </c>
       <c r="D168" s="7"/>
@@ -8926,157 +8945,157 @@
       <c r="F168" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="G168" s="57" t="s">
+      <c r="G168" s="70" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A169" s="63"/>
-      <c r="B169" s="63"/>
-      <c r="C169" s="57"/>
+      <c r="A169" s="77"/>
+      <c r="B169" s="77"/>
+      <c r="C169" s="70"/>
       <c r="D169" s="7"/>
       <c r="E169" s="20"/>
       <c r="F169" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G169" s="57"/>
+      <c r="G169" s="70"/>
     </row>
     <row r="170" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A170" s="63"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="57"/>
+      <c r="A170" s="77"/>
+      <c r="B170" s="77"/>
+      <c r="C170" s="70"/>
       <c r="D170" s="7"/>
       <c r="E170" s="20"/>
       <c r="F170" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G170" s="57"/>
+      <c r="G170" s="70"/>
     </row>
     <row r="171" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A171" s="63"/>
-      <c r="B171" s="63"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="77"/>
+      <c r="B171" s="77"/>
+      <c r="C171" s="70"/>
       <c r="D171" s="7"/>
       <c r="E171" s="20"/>
       <c r="F171" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G171" s="57"/>
+      <c r="G171" s="70"/>
     </row>
     <row r="172" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A172" s="63"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="57"/>
+      <c r="A172" s="77"/>
+      <c r="B172" s="77"/>
+      <c r="C172" s="70"/>
       <c r="D172" s="7"/>
       <c r="E172" s="20"/>
       <c r="F172" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G172" s="57"/>
+      <c r="G172" s="70"/>
     </row>
     <row r="173" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A173" s="63"/>
-      <c r="B173" s="63"/>
-      <c r="C173" s="57"/>
+      <c r="A173" s="77"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="70"/>
       <c r="D173" s="7"/>
       <c r="E173" s="20"/>
       <c r="F173" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G173" s="57"/>
+      <c r="G173" s="70"/>
     </row>
     <row r="174" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A174" s="63"/>
-      <c r="B174" s="63"/>
-      <c r="C174" s="57"/>
+      <c r="A174" s="77"/>
+      <c r="B174" s="77"/>
+      <c r="C174" s="70"/>
       <c r="D174" s="7"/>
       <c r="E174" s="20"/>
       <c r="F174" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G174" s="57"/>
+      <c r="G174" s="70"/>
     </row>
     <row r="175" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A175" s="63"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="57"/>
+      <c r="A175" s="77"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="70"/>
       <c r="D175" s="7"/>
       <c r="E175" s="20"/>
       <c r="F175" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G175" s="57"/>
+      <c r="G175" s="70"/>
     </row>
     <row r="176" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A176" s="63"/>
-      <c r="B176" s="63"/>
-      <c r="C176" s="57"/>
+      <c r="A176" s="77"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="70"/>
       <c r="D176" s="7"/>
       <c r="E176" s="20"/>
       <c r="F176" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G176" s="57"/>
+      <c r="G176" s="70"/>
     </row>
     <row r="177" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A177" s="63"/>
-      <c r="B177" s="63"/>
-      <c r="C177" s="57"/>
+      <c r="A177" s="77"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="70"/>
       <c r="D177" s="7"/>
       <c r="E177" s="20"/>
       <c r="F177" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G177" s="57"/>
+      <c r="G177" s="70"/>
     </row>
     <row r="178" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A178" s="63"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="57"/>
+      <c r="A178" s="77"/>
+      <c r="B178" s="77"/>
+      <c r="C178" s="70"/>
       <c r="D178" s="7"/>
       <c r="E178" s="20"/>
       <c r="F178" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G178" s="57"/>
+      <c r="G178" s="70"/>
     </row>
     <row r="179" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A179" s="63"/>
-      <c r="B179" s="63"/>
-      <c r="C179" s="57"/>
+      <c r="A179" s="77"/>
+      <c r="B179" s="77"/>
+      <c r="C179" s="70"/>
       <c r="D179" s="7"/>
       <c r="E179" s="20"/>
       <c r="F179" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G179" s="57"/>
+      <c r="G179" s="70"/>
     </row>
     <row r="180" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A180" s="63"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="57"/>
+      <c r="A180" s="77"/>
+      <c r="B180" s="77"/>
+      <c r="C180" s="70"/>
       <c r="D180" s="7"/>
       <c r="E180" s="20"/>
       <c r="F180" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G180" s="57"/>
+      <c r="G180" s="70"/>
     </row>
     <row r="181" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A181" s="63"/>
-      <c r="B181" s="63"/>
-      <c r="C181" s="57"/>
+      <c r="A181" s="77"/>
+      <c r="B181" s="77"/>
+      <c r="C181" s="70"/>
       <c r="D181" s="7"/>
       <c r="E181" s="20"/>
       <c r="F181" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G181" s="57"/>
+      <c r="G181" s="70"/>
     </row>
     <row r="182" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A182" s="63"/>
-      <c r="B182" s="63"/>
-      <c r="C182" s="57" t="s">
+      <c r="A182" s="77"/>
+      <c r="B182" s="77"/>
+      <c r="C182" s="70" t="s">
         <v>225</v>
       </c>
       <c r="D182" s="7"/>
@@ -9084,122 +9103,122 @@
       <c r="F182" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="G182" s="57"/>
+      <c r="G182" s="70"/>
     </row>
     <row r="183" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A183" s="63"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="57"/>
+      <c r="A183" s="77"/>
+      <c r="B183" s="77"/>
+      <c r="C183" s="70"/>
       <c r="D183" s="7"/>
       <c r="E183" s="20"/>
       <c r="F183" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G183" s="57"/>
+      <c r="G183" s="70"/>
     </row>
     <row r="184" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A184" s="63"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="57"/>
+      <c r="A184" s="77"/>
+      <c r="B184" s="77"/>
+      <c r="C184" s="70"/>
       <c r="D184" s="7"/>
       <c r="E184" s="20"/>
       <c r="F184" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G184" s="57"/>
+      <c r="G184" s="70"/>
     </row>
     <row r="185" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A185" s="63"/>
-      <c r="B185" s="63"/>
-      <c r="C185" s="57"/>
+      <c r="A185" s="77"/>
+      <c r="B185" s="77"/>
+      <c r="C185" s="70"/>
       <c r="D185" s="7"/>
       <c r="E185" s="20"/>
       <c r="F185" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G185" s="57"/>
+      <c r="G185" s="70"/>
     </row>
     <row r="186" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A186" s="63"/>
-      <c r="B186" s="63"/>
-      <c r="C186" s="57"/>
+      <c r="A186" s="77"/>
+      <c r="B186" s="77"/>
+      <c r="C186" s="70"/>
       <c r="D186" s="7"/>
       <c r="E186" s="20"/>
       <c r="F186" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G186" s="57"/>
+      <c r="G186" s="70"/>
     </row>
     <row r="187" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A187" s="63"/>
-      <c r="B187" s="63"/>
-      <c r="C187" s="57"/>
+      <c r="A187" s="77"/>
+      <c r="B187" s="77"/>
+      <c r="C187" s="70"/>
       <c r="D187" s="7"/>
       <c r="E187" s="20"/>
       <c r="F187" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G187" s="57"/>
+      <c r="G187" s="70"/>
     </row>
     <row r="188" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A188" s="63"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="57"/>
+      <c r="A188" s="77"/>
+      <c r="B188" s="77"/>
+      <c r="C188" s="70"/>
       <c r="D188" s="7"/>
       <c r="E188" s="20"/>
       <c r="F188" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G188" s="57"/>
+      <c r="G188" s="70"/>
     </row>
     <row r="189" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A189" s="63"/>
-      <c r="B189" s="63"/>
-      <c r="C189" s="57"/>
+      <c r="A189" s="77"/>
+      <c r="B189" s="77"/>
+      <c r="C189" s="70"/>
       <c r="D189" s="7"/>
       <c r="E189" s="20"/>
       <c r="F189" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G189" s="57"/>
+      <c r="G189" s="70"/>
     </row>
     <row r="190" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A190" s="63"/>
-      <c r="B190" s="63"/>
-      <c r="C190" s="57"/>
+      <c r="A190" s="77"/>
+      <c r="B190" s="77"/>
+      <c r="C190" s="70"/>
       <c r="D190" s="7"/>
       <c r="E190" s="20"/>
       <c r="F190" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G190" s="57"/>
+      <c r="G190" s="70"/>
     </row>
     <row r="191" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A191" s="63"/>
-      <c r="B191" s="63"/>
-      <c r="C191" s="57"/>
+      <c r="A191" s="77"/>
+      <c r="B191" s="77"/>
+      <c r="C191" s="70"/>
       <c r="D191" s="7"/>
       <c r="E191" s="20"/>
       <c r="F191" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G191" s="57"/>
+      <c r="G191" s="70"/>
     </row>
     <row r="192" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A192" s="63"/>
-      <c r="B192" s="63"/>
-      <c r="C192" s="57"/>
+      <c r="A192" s="77"/>
+      <c r="B192" s="77"/>
+      <c r="C192" s="70"/>
       <c r="D192" s="7"/>
       <c r="E192" s="20"/>
       <c r="F192" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G192" s="57"/>
+      <c r="G192" s="70"/>
     </row>
     <row r="193" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A193" s="63"/>
-      <c r="B193" s="63"/>
-      <c r="C193" s="57" t="s">
+      <c r="A193" s="77"/>
+      <c r="B193" s="77"/>
+      <c r="C193" s="70" t="s">
         <v>241</v>
       </c>
       <c r="D193" s="7"/>
@@ -9207,100 +9226,100 @@
       <c r="F193" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G193" s="57"/>
+      <c r="G193" s="70"/>
     </row>
     <row r="194" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A194" s="63"/>
-      <c r="B194" s="63"/>
-      <c r="C194" s="57"/>
+      <c r="A194" s="77"/>
+      <c r="B194" s="77"/>
+      <c r="C194" s="70"/>
       <c r="D194" s="7"/>
       <c r="E194" s="20"/>
       <c r="F194" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G194" s="57"/>
+      <c r="G194" s="70"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A195" s="63"/>
-      <c r="B195" s="63"/>
-      <c r="C195" s="57"/>
+      <c r="A195" s="77"/>
+      <c r="B195" s="77"/>
+      <c r="C195" s="70"/>
       <c r="D195" s="7"/>
       <c r="E195" s="20"/>
       <c r="F195" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G195" s="57"/>
+      <c r="G195" s="70"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A196" s="63"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="57"/>
+      <c r="A196" s="77"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="70"/>
       <c r="D196" s="7"/>
       <c r="E196" s="20"/>
       <c r="F196" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G196" s="57"/>
+      <c r="G196" s="70"/>
     </row>
     <row r="197" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A197" s="63"/>
-      <c r="B197" s="63"/>
-      <c r="C197" s="57"/>
+      <c r="A197" s="77"/>
+      <c r="B197" s="77"/>
+      <c r="C197" s="70"/>
       <c r="D197" s="7"/>
       <c r="E197" s="20"/>
       <c r="F197" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G197" s="57"/>
+      <c r="G197" s="70"/>
     </row>
     <row r="198" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A198" s="63"/>
-      <c r="B198" s="63"/>
-      <c r="C198" s="57"/>
+      <c r="A198" s="77"/>
+      <c r="B198" s="77"/>
+      <c r="C198" s="70"/>
       <c r="D198" s="7"/>
       <c r="E198" s="20"/>
       <c r="F198" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="G198" s="57"/>
+      <c r="G198" s="70"/>
     </row>
     <row r="199" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A199" s="63"/>
-      <c r="B199" s="63"/>
-      <c r="C199" s="57"/>
+      <c r="A199" s="77"/>
+      <c r="B199" s="77"/>
+      <c r="C199" s="70"/>
       <c r="D199" s="7"/>
       <c r="E199" s="20"/>
       <c r="F199" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G199" s="57"/>
+      <c r="G199" s="70"/>
     </row>
     <row r="200" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A200" s="63"/>
-      <c r="B200" s="63"/>
-      <c r="C200" s="57"/>
+      <c r="A200" s="77"/>
+      <c r="B200" s="77"/>
+      <c r="C200" s="70"/>
       <c r="D200" s="7"/>
       <c r="E200" s="20"/>
       <c r="F200" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G200" s="57"/>
+      <c r="G200" s="70"/>
     </row>
     <row r="201" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A201" s="63"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="57"/>
+      <c r="A201" s="77"/>
+      <c r="B201" s="77"/>
+      <c r="C201" s="70"/>
       <c r="D201" s="7"/>
       <c r="E201" s="20"/>
       <c r="F201" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G201" s="57"/>
+      <c r="G201" s="70"/>
     </row>
     <row r="202" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A202" s="63"/>
-      <c r="B202" s="63"/>
-      <c r="C202" s="57" t="s">
+      <c r="A202" s="77"/>
+      <c r="B202" s="77"/>
+      <c r="C202" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D202" s="10"/>
@@ -9311,9 +9330,9 @@
       <c r="G202" s="21"/>
     </row>
     <row r="203" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A203" s="63"/>
-      <c r="B203" s="63"/>
-      <c r="C203" s="57"/>
+      <c r="A203" s="77"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="70"/>
       <c r="D203" s="10"/>
       <c r="E203" s="20"/>
       <c r="F203" s="11" t="s">
@@ -9322,9 +9341,9 @@
       <c r="G203" s="21"/>
     </row>
     <row r="204" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A204" s="63"/>
-      <c r="B204" s="63"/>
-      <c r="C204" s="57"/>
+      <c r="A204" s="77"/>
+      <c r="B204" s="77"/>
+      <c r="C204" s="70"/>
       <c r="D204" s="10"/>
       <c r="E204" s="20"/>
       <c r="F204" s="11" t="s">
@@ -9333,9 +9352,9 @@
       <c r="G204" s="21"/>
     </row>
     <row r="205" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A205" s="63"/>
-      <c r="B205" s="63"/>
-      <c r="C205" s="57"/>
+      <c r="A205" s="77"/>
+      <c r="B205" s="77"/>
+      <c r="C205" s="70"/>
       <c r="D205" s="10"/>
       <c r="E205" s="20"/>
       <c r="F205" s="11" t="s">
@@ -9344,9 +9363,9 @@
       <c r="G205" s="21"/>
     </row>
     <row r="206" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A206" s="63"/>
-      <c r="B206" s="63"/>
-      <c r="C206" s="57"/>
+      <c r="A206" s="77"/>
+      <c r="B206" s="77"/>
+      <c r="C206" s="70"/>
       <c r="D206" s="10"/>
       <c r="E206" s="20"/>
       <c r="F206" s="11" t="s">
@@ -9355,9 +9374,9 @@
       <c r="G206" s="21"/>
     </row>
     <row r="207" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A207" s="63"/>
-      <c r="B207" s="63"/>
-      <c r="C207" s="57"/>
+      <c r="A207" s="77"/>
+      <c r="B207" s="77"/>
+      <c r="C207" s="70"/>
       <c r="D207" s="10"/>
       <c r="E207" s="20"/>
       <c r="F207" s="11" t="s">
@@ -9366,9 +9385,9 @@
       <c r="G207" s="21"/>
     </row>
     <row r="208" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A208" s="63"/>
-      <c r="B208" s="63"/>
-      <c r="C208" s="57"/>
+      <c r="A208" s="77"/>
+      <c r="B208" s="77"/>
+      <c r="C208" s="70"/>
       <c r="D208" s="10"/>
       <c r="E208" s="20"/>
       <c r="F208" s="11" t="s">
@@ -9377,9 +9396,9 @@
       <c r="G208" s="21"/>
     </row>
     <row r="209" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A209" s="63"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="57"/>
+      <c r="A209" s="77"/>
+      <c r="B209" s="77"/>
+      <c r="C209" s="70"/>
       <c r="D209" s="10"/>
       <c r="E209" s="20"/>
       <c r="F209" s="11" t="s">
@@ -9388,9 +9407,9 @@
       <c r="G209" s="21"/>
     </row>
     <row r="210" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A210" s="63"/>
-      <c r="B210" s="63"/>
-      <c r="C210" s="57"/>
+      <c r="A210" s="77"/>
+      <c r="B210" s="77"/>
+      <c r="C210" s="70"/>
       <c r="D210" s="10"/>
       <c r="E210" s="20"/>
       <c r="F210" s="11" t="s">
@@ -9399,9 +9418,9 @@
       <c r="G210" s="21"/>
     </row>
     <row r="211" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A211" s="63"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="57"/>
+      <c r="A211" s="77"/>
+      <c r="B211" s="77"/>
+      <c r="C211" s="70"/>
       <c r="D211" s="10"/>
       <c r="E211" s="20"/>
       <c r="F211" s="11" t="s">
@@ -9410,9 +9429,9 @@
       <c r="G211" s="21"/>
     </row>
     <row r="212" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A212" s="63"/>
-      <c r="B212" s="63"/>
-      <c r="C212" s="57"/>
+      <c r="A212" s="77"/>
+      <c r="B212" s="77"/>
+      <c r="C212" s="70"/>
       <c r="D212" s="10"/>
       <c r="E212" s="20"/>
       <c r="F212" s="11" t="s">
@@ -9421,9 +9440,9 @@
       <c r="G212" s="21"/>
     </row>
     <row r="213" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A213" s="63"/>
-      <c r="B213" s="63"/>
-      <c r="C213" s="57"/>
+      <c r="A213" s="77"/>
+      <c r="B213" s="77"/>
+      <c r="C213" s="70"/>
       <c r="D213" s="10"/>
       <c r="E213" s="20"/>
       <c r="F213" s="11" t="s">
@@ -9432,9 +9451,9 @@
       <c r="G213" s="21"/>
     </row>
     <row r="214" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A214" s="63"/>
-      <c r="B214" s="63"/>
-      <c r="C214" s="57"/>
+      <c r="A214" s="77"/>
+      <c r="B214" s="77"/>
+      <c r="C214" s="70"/>
       <c r="D214" s="10"/>
       <c r="E214" s="20"/>
       <c r="F214" s="11" t="s">
@@ -9443,9 +9462,9 @@
       <c r="G214" s="21"/>
     </row>
     <row r="215" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A215" s="63"/>
-      <c r="B215" s="63"/>
-      <c r="C215" s="57"/>
+      <c r="A215" s="77"/>
+      <c r="B215" s="77"/>
+      <c r="C215" s="70"/>
       <c r="D215" s="10"/>
       <c r="E215" s="20"/>
       <c r="F215" s="11" t="s">
@@ -9454,9 +9473,9 @@
       <c r="G215" s="21"/>
     </row>
     <row r="216" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A216" s="63"/>
-      <c r="B216" s="63"/>
-      <c r="C216" s="57"/>
+      <c r="A216" s="77"/>
+      <c r="B216" s="77"/>
+      <c r="C216" s="70"/>
       <c r="D216" s="10"/>
       <c r="E216" s="20"/>
       <c r="F216" s="11" t="s">
@@ -9465,9 +9484,9 @@
       <c r="G216" s="21"/>
     </row>
     <row r="217" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A217" s="63"/>
-      <c r="B217" s="63"/>
-      <c r="C217" s="57"/>
+      <c r="A217" s="77"/>
+      <c r="B217" s="77"/>
+      <c r="C217" s="70"/>
       <c r="D217" s="10"/>
       <c r="E217" s="20"/>
       <c r="F217" s="11" t="s">
@@ -9476,9 +9495,9 @@
       <c r="G217" s="21"/>
     </row>
     <row r="218" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A218" s="63"/>
-      <c r="B218" s="63"/>
-      <c r="C218" s="57"/>
+      <c r="A218" s="77"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="70"/>
       <c r="D218" s="10"/>
       <c r="E218" s="20"/>
       <c r="F218" s="11" t="s">
@@ -9487,13 +9506,13 @@
       <c r="G218" s="21"/>
     </row>
     <row r="219" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A219" s="63" t="s">
+      <c r="A219" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B219" s="63" t="s">
+      <c r="B219" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="C219" s="74" t="s">
+      <c r="C219" s="90" t="s">
         <v>281</v>
       </c>
       <c r="D219" s="7"/>
@@ -9504,9 +9523,9 @@
       <c r="G219" s="5"/>
     </row>
     <row r="220" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A220" s="63"/>
-      <c r="B220" s="63"/>
-      <c r="C220" s="74"/>
+      <c r="A220" s="77"/>
+      <c r="B220" s="77"/>
+      <c r="C220" s="90"/>
       <c r="D220" s="7"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9" t="s">
@@ -9515,9 +9534,9 @@
       <c r="G220" s="5"/>
     </row>
     <row r="221" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A221" s="63"/>
-      <c r="B221" s="63"/>
-      <c r="C221" s="74"/>
+      <c r="A221" s="77"/>
+      <c r="B221" s="77"/>
+      <c r="C221" s="90"/>
       <c r="D221" s="7"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9" t="s">
@@ -9526,9 +9545,9 @@
       <c r="G221" s="5"/>
     </row>
     <row r="222" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A222" s="63"/>
-      <c r="B222" s="63"/>
-      <c r="C222" s="74"/>
+      <c r="A222" s="77"/>
+      <c r="B222" s="77"/>
+      <c r="C222" s="90"/>
       <c r="D222" s="7"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9" t="s">
@@ -9537,9 +9556,9 @@
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A223" s="63"/>
-      <c r="B223" s="63"/>
-      <c r="C223" s="74"/>
+      <c r="A223" s="77"/>
+      <c r="B223" s="77"/>
+      <c r="C223" s="90"/>
       <c r="D223" s="7"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9" t="s">
@@ -9548,9 +9567,9 @@
       <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A224" s="63"/>
-      <c r="B224" s="63"/>
-      <c r="C224" s="74"/>
+      <c r="A224" s="77"/>
+      <c r="B224" s="77"/>
+      <c r="C224" s="90"/>
       <c r="D224" s="7"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9" t="s">
@@ -9559,8 +9578,8 @@
       <c r="G224" s="5"/>
     </row>
     <row r="225" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A225" s="63"/>
-      <c r="B225" s="63"/>
+      <c r="A225" s="77"/>
+      <c r="B225" s="77"/>
       <c r="C225" s="8" t="s">
         <v>288</v>
       </c>
@@ -9574,9 +9593,9 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A226" s="63"/>
-      <c r="B226" s="63"/>
-      <c r="C226" s="75" t="s">
+      <c r="A226" s="77"/>
+      <c r="B226" s="77"/>
+      <c r="C226" s="89" t="s">
         <v>291</v>
       </c>
       <c r="D226" s="7"/>
@@ -9587,9 +9606,9 @@
       <c r="G226" s="5"/>
     </row>
     <row r="227" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A227" s="63"/>
-      <c r="B227" s="63"/>
-      <c r="C227" s="75"/>
+      <c r="A227" s="77"/>
+      <c r="B227" s="77"/>
+      <c r="C227" s="89"/>
       <c r="D227" s="7"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9" t="s">
@@ -9598,9 +9617,9 @@
       <c r="G227" s="5"/>
     </row>
     <row r="228" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A228" s="63"/>
-      <c r="B228" s="63"/>
-      <c r="C228" s="75" t="s">
+      <c r="A228" s="77"/>
+      <c r="B228" s="77"/>
+      <c r="C228" s="89" t="s">
         <v>294</v>
       </c>
       <c r="D228" s="7"/>
@@ -9611,9 +9630,9 @@
       <c r="G228" s="5"/>
     </row>
     <row r="229" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A229" s="63"/>
-      <c r="B229" s="63"/>
-      <c r="C229" s="75"/>
+      <c r="A229" s="77"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="89"/>
       <c r="D229" s="7"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9" t="s">
@@ -9636,19 +9655,64 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="G168:G201"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="F154:F157"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G46:G55"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G119:G121"/>
-    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A100"/>
+    <mergeCell ref="A101:A125"/>
+    <mergeCell ref="A126:A167"/>
+    <mergeCell ref="A168:A218"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B138"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B168:B218"/>
+    <mergeCell ref="C128:C133"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="A219:A229"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B78"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B219:B229"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C55"/>
+    <mergeCell ref="C56:C70"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="C168:C181"/>
+    <mergeCell ref="C182:C192"/>
+    <mergeCell ref="C193:C201"/>
+    <mergeCell ref="C202:C218"/>
+    <mergeCell ref="C219:C224"/>
     <mergeCell ref="C226:C227"/>
     <mergeCell ref="C228:C229"/>
     <mergeCell ref="D5:D7"/>
@@ -9665,64 +9729,19 @@
     <mergeCell ref="D128:D131"/>
     <mergeCell ref="D134:D136"/>
     <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C168:C181"/>
-    <mergeCell ref="C182:C192"/>
-    <mergeCell ref="C193:C201"/>
-    <mergeCell ref="C202:C218"/>
-    <mergeCell ref="C219:C224"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="B219:B229"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C55"/>
-    <mergeCell ref="C56:C70"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A219:A229"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B78"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A100"/>
-    <mergeCell ref="A101:A125"/>
-    <mergeCell ref="A126:A167"/>
-    <mergeCell ref="A168:A218"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B138"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B168:B218"/>
-    <mergeCell ref="C128:C133"/>
-    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G46:G55"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G168:G201"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="F154:F157"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="G154:G157"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
